--- a/Layers/HH_layers.xlsx
+++ b/Layers/HH_layers.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VRI\Projekti\HumanHabitat\Human Habitat 2\HH tool\Layers\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Downloads\HumanHabitat\Layers\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A6C69A5-219C-4047-9365-C711F050FEBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EFD1609-62E4-4F6E-9A35-1F8504686116}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{13951075-93B7-4C45-B806-104DD06C9588}"/>
+    <workbookView xWindow="3285" yWindow="3075" windowWidth="21600" windowHeight="12675" xr2:uid="{13951075-93B7-4C45-B806-104DD06C9588}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,27 +36,15 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="99">
   <si>
-    <t>10101.tif</t>
-  </si>
-  <si>
     <t xml:space="preserve">Datu slānis reprezentē tuvumu līdz Cēsu centram brauciena laika izteiksmē ar 10 min. soli, kur 100 punkti atbilst attālumam 0...10 min., 90 punkti attālumam 10…20 min., bet 10 punkti attālumam &gt;90 min. Vērtību aprēķiņāšanai izmantots OpenRoutingService algoritms. </t>
   </si>
   <si>
-    <t>10102.tif</t>
-  </si>
-  <si>
     <t xml:space="preserve">Datu slānis reprezentē tuvumu līdz Cēsu centram brauciena distances izteiksmē ar 10 km soli, kur 100 punkti atbilst attālumam 0...10 k, 90 punkti attālumam 10…20 km, bet 10 punkti attālumam &gt;90 km. Vērtību aprēķiņāšanai izmantots OpenRoutingService algoritms. </t>
   </si>
   <si>
-    <t>10103.tif</t>
-  </si>
-  <si>
     <t xml:space="preserve">Datu slānis reprezentē tuvumu līdz ciematiem jeb sekundāriem centriem Cēsu novadā brauciena laika izteiksmē ar 10 min. soli, kur 100 punkti atbilst attālumam 0...10 min., 90 punkti attālumam 10…20 min., bet 10 punkti attālumam &gt;90 min. Vērtību aprēķiņāšanai izmantots OpenRoutingService algoritms. </t>
   </si>
   <si>
-    <t>10104.tif</t>
-  </si>
-  <si>
     <t>Tuvums līdz novada centram (laiks)</t>
   </si>
   <si>
@@ -75,18 +63,9 @@
     <t>Tuvums līdz Cēsīm (distance)</t>
   </si>
   <si>
-    <t>10105.tif</t>
-  </si>
-  <si>
     <t xml:space="preserve">Datu slānis reprezentē tuvumu līdz novadu centriem brauciena distances izteiksmē ar 10 km soli, kur 100 punkti atbilst attālumam 0...10 k, 90 punkti attālumam 10…20 km, bet 10 punkti attālumam &gt;90 km. Vērtību aprēķiņāšanai izmantots OpenRoutingService algoritms. </t>
   </si>
   <si>
-    <t>10301.tif</t>
-  </si>
-  <si>
-    <t>10302.tif</t>
-  </si>
-  <si>
     <t>Ūdenstilpes (&gt;0,1 ha)</t>
   </si>
   <si>
@@ -96,21 +75,12 @@
     <t>Ūdenstilpes (&gt;50 ha)</t>
   </si>
   <si>
-    <t>10303.tif</t>
-  </si>
-  <si>
     <t>Meži (&gt;0,1 ha)</t>
   </si>
   <si>
-    <t>10401.tif</t>
-  </si>
-  <si>
     <t>Meži (&gt;1 ha)</t>
   </si>
   <si>
-    <t>10402.tif</t>
-  </si>
-  <si>
     <t>Datu slānis reprezentē ūdenstilpes (&gt;0,1 ha) tuvumu, kur 100 punkti atbilst atrašānās ūdenstipē vai tās krastā, 0 punkti &gt;1km attālumā. Ūdenstilpju slānis iegūts kombinējot Zemes seguma klasifikācijas rezultātu ar Open StreetMap datiem.</t>
   </si>
   <si>
@@ -126,27 +96,18 @@
     <t>Datu slānis reprezentē meža (&gt;1 ha) tuvumu, kur 100 punkti atbilst atrašānās mežā vai tā malā, 0 punkti &gt;1km attālumā. Mežu slānis iegūts no Zemes seguma klasifikācijas rezultāta.</t>
   </si>
   <si>
-    <t>10501.tif</t>
-  </si>
-  <si>
     <t>Zālāji (&gt;0,1 ha)</t>
   </si>
   <si>
     <t>Datu slānis reprezentē zālāju (&gt;0,1 ha) tuvumu, kur 100 punkti atbilst atrašānās zālājā vai tā malā, 0 punkti &gt;1km attālumā. Zālāju slānis iegūts no Zemes seguma klasifikācijas rezultāta, kombinējot ar Lauku atbalsta dienesta datiem.</t>
   </si>
   <si>
-    <t>10502.tif</t>
-  </si>
-  <si>
     <t>Zālāji (&gt;1 ha)</t>
   </si>
   <si>
     <t>Datu slānis reprezentē zālāju (&gt;1 ha) tuvumu, kur 100 punkti atbilst atrašānās zālājā vai tā malā, 0 punkti &gt;1km attālumā. Zālāju slānis iegūts no Zemes seguma klasifikācijas rezultāta, kombinējot ar Lauku atbalsta dienesta datiem.</t>
   </si>
   <si>
-    <t>10503.tif</t>
-  </si>
-  <si>
     <t>Zālāji (bioloģiski vērtīgie)</t>
   </si>
   <si>
@@ -165,21 +126,6 @@
     <t>Lauksaimniecība (konvencionālā)</t>
   </si>
   <si>
-    <t>10601.tif</t>
-  </si>
-  <si>
-    <t>10602.tif</t>
-  </si>
-  <si>
-    <t>10603.tif</t>
-  </si>
-  <si>
-    <t>10604.tif</t>
-  </si>
-  <si>
-    <t>10803.tif</t>
-  </si>
-  <si>
     <t>Ēkas</t>
   </si>
   <si>
@@ -198,24 +144,12 @@
     <t>Datu slānis reprezentē lauksaimniecības zemju (&gt;0,1 ha) tuvumu, kur 100 punkti atbilst atrašānās laukā vai tā malā, 0 punkti &gt;1km attālumā. Lauksaimniecības zemju slānis iegūts no Zemes seguma klasifikācijas rezultāta, kombinējot ar Lauku atbalsta dienesta datiem.</t>
   </si>
   <si>
-    <t>10805.tif</t>
-  </si>
-  <si>
     <t>Industriāli objekti</t>
   </si>
   <si>
     <t>Datu slānis reprezentē industriālu objektu tuvumu, kur 100 punkti atbilst atrašānās objektā vai pie tā, 0 punkti &gt;1km attālumā. Industriālo objektu slānis iegūts no OpenStreetMap datiem.</t>
   </si>
   <si>
-    <t>10901.tif</t>
-  </si>
-  <si>
-    <t>10902.tif</t>
-  </si>
-  <si>
-    <t>10904.tif</t>
-  </si>
-  <si>
     <t>Ceļi (visi)</t>
   </si>
   <si>
@@ -234,15 +168,6 @@
     <t>Datu slānis reprezentē dzelzceļa tuvumu, kur 100 punkti atbilst atrašānās uz dzelzceļa vai pie tā, 0 punkti &gt;1km attālumā. Dzelzceļa slānis iegūts no OpenStreetMap datiem.</t>
   </si>
   <si>
-    <t>11001.tif</t>
-  </si>
-  <si>
-    <t>11002.tif</t>
-  </si>
-  <si>
-    <t>11003.tif</t>
-  </si>
-  <si>
     <t>Tūrisma objekti</t>
   </si>
   <si>
@@ -261,18 +186,6 @@
     <t>Datu slānis reprezentē kapsētu tuvumu, kur 100 punkti atbilst atrašānās kapsētā vai pie tās, 0 punkti &gt;1km attālumā. Kapsētu slānis iegūts no OpenStreetMap datiem.</t>
   </si>
   <si>
-    <t>11106.tif</t>
-  </si>
-  <si>
-    <t>11107.tif</t>
-  </si>
-  <si>
-    <t>11108.tif</t>
-  </si>
-  <si>
-    <t>11109.tif</t>
-  </si>
-  <si>
     <t>Zaļums (pastāvīgs)</t>
   </si>
   <si>
@@ -297,15 +210,6 @@
     <t>Datu slānis reprezentē ainavas procentuālo īpatsvaru ar novērotu zaļuma samazinājumu 2016.-2019. gadā, kur 100 punkti atbilst 100% zaļuma samazinājumam 300 m diametrā, bet 0 punkti - 0%. Zaļuma samazinājuma novērtējumam izmantoti Sentinel-2 satelītdati 2016.-2019. gadam, NDVI slieksnis 0,5, skatīta tendence.</t>
   </si>
   <si>
-    <t>11201.tif</t>
-  </si>
-  <si>
-    <t>11202.tif</t>
-  </si>
-  <si>
-    <t>11203.tif</t>
-  </si>
-  <si>
     <t>Ainavas atvērtums</t>
   </si>
   <si>
@@ -331,6 +235,102 @@
   </si>
   <si>
     <t>Comment</t>
+  </si>
+  <si>
+    <t>11201.png</t>
+  </si>
+  <si>
+    <t>10902.png</t>
+  </si>
+  <si>
+    <t>10901.png</t>
+  </si>
+  <si>
+    <t>10904.png</t>
+  </si>
+  <si>
+    <t>10803.png</t>
+  </si>
+  <si>
+    <t>10805.png</t>
+  </si>
+  <si>
+    <t>11003.png</t>
+  </si>
+  <si>
+    <t>10601.png</t>
+  </si>
+  <si>
+    <t>10602.png</t>
+  </si>
+  <si>
+    <t>10603.png</t>
+  </si>
+  <si>
+    <t>10604.png</t>
+  </si>
+  <si>
+    <t>11203.png</t>
+  </si>
+  <si>
+    <t>11202.png</t>
+  </si>
+  <si>
+    <t>10401.png</t>
+  </si>
+  <si>
+    <t>10402.png</t>
+  </si>
+  <si>
+    <t>11002.png</t>
+  </si>
+  <si>
+    <t>10102.png</t>
+  </si>
+  <si>
+    <t>10101.png</t>
+  </si>
+  <si>
+    <t>10105.png</t>
+  </si>
+  <si>
+    <t>10104.png</t>
+  </si>
+  <si>
+    <t>10103.png</t>
+  </si>
+  <si>
+    <t>11001.png</t>
+  </si>
+  <si>
+    <t>10301.png</t>
+  </si>
+  <si>
+    <t>10302.png</t>
+  </si>
+  <si>
+    <t>10303.png</t>
+  </si>
+  <si>
+    <t>11108.png</t>
+  </si>
+  <si>
+    <t>11109.png</t>
+  </si>
+  <si>
+    <t>11107.png</t>
+  </si>
+  <si>
+    <t>11106.png</t>
+  </si>
+  <si>
+    <t>10501.png</t>
+  </si>
+  <si>
+    <t>10502.png</t>
+  </si>
+  <si>
+    <t>10503.png</t>
   </si>
 </sst>
 </file>
@@ -696,378 +696,378 @@
   <dimension ref="A1:C33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C1" sqref="C1"/>
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2:B33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.88671875" customWidth="1"/>
-    <col min="2" max="2" width="10.33203125" customWidth="1"/>
+    <col min="1" max="1" width="32.85546875" customWidth="1"/>
+    <col min="2" max="2" width="10.28515625" customWidth="1"/>
     <col min="3" max="3" width="51" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7" t="s">
+        <v>72</v>
+      </c>
+      <c r="C7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>45</v>
+      </c>
+      <c r="B8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" t="s">
+        <v>74</v>
+      </c>
+      <c r="C9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" t="s">
+        <v>75</v>
+      </c>
+      <c r="C10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" t="s">
+        <v>76</v>
+      </c>
+      <c r="C11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" t="s">
+        <v>77</v>
+      </c>
+      <c r="C12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>63</v>
+      </c>
+      <c r="B13" t="s">
+        <v>78</v>
+      </c>
+      <c r="C13" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>59</v>
+      </c>
+      <c r="B14" t="s">
+        <v>79</v>
+      </c>
+      <c r="C14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>80</v>
+      </c>
+      <c r="C15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>81</v>
+      </c>
+      <c r="C16" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>46</v>
+      </c>
+      <c r="B17" t="s">
+        <v>82</v>
+      </c>
+      <c r="C17" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18" t="s">
+        <v>83</v>
+      </c>
+      <c r="C18" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>7</v>
+      </c>
+      <c r="B19" t="s">
+        <v>84</v>
+      </c>
+      <c r="C19" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>6</v>
+      </c>
+      <c r="B20" t="s">
+        <v>85</v>
+      </c>
+      <c r="C20" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>3</v>
+      </c>
+      <c r="B21" t="s">
+        <v>86</v>
+      </c>
+      <c r="C21" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>4</v>
+      </c>
+      <c r="B22" t="s">
+        <v>87</v>
+      </c>
+      <c r="C22" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>44</v>
+      </c>
+      <c r="B23" t="s">
+        <v>88</v>
+      </c>
+      <c r="C23" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>10</v>
+      </c>
+      <c r="B24" t="s">
+        <v>89</v>
+      </c>
+      <c r="C24" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>11</v>
+      </c>
+      <c r="B25" t="s">
+        <v>90</v>
+      </c>
+      <c r="C25" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>12</v>
+      </c>
+      <c r="B26" t="s">
+        <v>91</v>
+      </c>
+      <c r="C26" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>52</v>
+      </c>
+      <c r="B27" t="s">
+        <v>92</v>
+      </c>
+      <c r="C27" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>53</v>
+      </c>
+      <c r="B28" t="s">
+        <v>93</v>
+      </c>
+      <c r="C28" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>51</v>
+      </c>
+      <c r="B29" t="s">
+        <v>94</v>
+      </c>
+      <c r="C29" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>50</v>
+      </c>
+      <c r="B30" t="s">
+        <v>95</v>
+      </c>
+      <c r="C30" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>20</v>
+      </c>
+      <c r="B31" t="s">
         <v>96</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C31" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>22</v>
+      </c>
+      <c r="B32" t="s">
         <v>97</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C32" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>24</v>
+      </c>
+      <c r="B33" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>90</v>
-      </c>
-      <c r="B2" t="s">
-        <v>87</v>
-      </c>
-      <c r="C2" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>61</v>
-      </c>
-      <c r="B3" t="s">
-        <v>58</v>
-      </c>
-      <c r="C3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>60</v>
-      </c>
-      <c r="B4" t="s">
-        <v>57</v>
-      </c>
-      <c r="C4" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>62</v>
-      </c>
-      <c r="B5" t="s">
-        <v>59</v>
-      </c>
-      <c r="C5" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>48</v>
-      </c>
-      <c r="B6" t="s">
-        <v>47</v>
-      </c>
-      <c r="C6" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>55</v>
-      </c>
-      <c r="B7" t="s">
-        <v>54</v>
-      </c>
-      <c r="C7" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>70</v>
-      </c>
-      <c r="B8" t="s">
-        <v>68</v>
-      </c>
-      <c r="C8" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>39</v>
-      </c>
-      <c r="B9" t="s">
-        <v>43</v>
-      </c>
-      <c r="C9" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>40</v>
-      </c>
-      <c r="B10" t="s">
-        <v>44</v>
-      </c>
-      <c r="C10" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>41</v>
-      </c>
-      <c r="B11" t="s">
-        <v>45</v>
-      </c>
-      <c r="C11" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>42</v>
-      </c>
-      <c r="B12" t="s">
-        <v>46</v>
-      </c>
-      <c r="C12" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>95</v>
-      </c>
-      <c r="B13" t="s">
-        <v>89</v>
-      </c>
-      <c r="C13" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>91</v>
-      </c>
-      <c r="B14" t="s">
-        <v>88</v>
-      </c>
-      <c r="C14" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>21</v>
-      </c>
-      <c r="B15" t="s">
-        <v>22</v>
-      </c>
-      <c r="C15" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>71</v>
-      </c>
-      <c r="B17" t="s">
-        <v>67</v>
-      </c>
-      <c r="C17" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>12</v>
-      </c>
-      <c r="B18" t="s">
-        <v>2</v>
-      </c>
-      <c r="C18" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>11</v>
-      </c>
-      <c r="B19" t="s">
-        <v>0</v>
-      </c>
-      <c r="C19" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>10</v>
-      </c>
-      <c r="B20" t="s">
-        <v>13</v>
-      </c>
-      <c r="C20" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>7</v>
-      </c>
-      <c r="B21" t="s">
-        <v>6</v>
-      </c>
-      <c r="C21" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>8</v>
-      </c>
-      <c r="B22" t="s">
-        <v>4</v>
-      </c>
-      <c r="C22" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>69</v>
-      </c>
-      <c r="B23" t="s">
-        <v>66</v>
-      </c>
-      <c r="C23" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>17</v>
-      </c>
-      <c r="B24" t="s">
-        <v>15</v>
-      </c>
-      <c r="C24" t="s">
+      <c r="C33" t="s">
         <v>25</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>18</v>
-      </c>
-      <c r="B25" t="s">
-        <v>16</v>
-      </c>
-      <c r="C25" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>19</v>
-      </c>
-      <c r="B26" t="s">
-        <v>20</v>
-      </c>
-      <c r="C26" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>81</v>
-      </c>
-      <c r="B27" t="s">
-        <v>77</v>
-      </c>
-      <c r="C27" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>82</v>
-      </c>
-      <c r="B28" t="s">
-        <v>78</v>
-      </c>
-      <c r="C28" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>80</v>
-      </c>
-      <c r="B29" t="s">
-        <v>76</v>
-      </c>
-      <c r="C29" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>79</v>
-      </c>
-      <c r="B30" t="s">
-        <v>75</v>
-      </c>
-      <c r="C30" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>31</v>
-      </c>
-      <c r="B31" t="s">
-        <v>30</v>
-      </c>
-      <c r="C31" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>34</v>
-      </c>
-      <c r="B32" t="s">
-        <v>33</v>
-      </c>
-      <c r="C32" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>37</v>
-      </c>
-      <c r="B33" t="s">
-        <v>36</v>
-      </c>
-      <c r="C33" t="s">
-        <v>38</v>
       </c>
     </row>
   </sheetData>
